--- a/data/trans_dic/P33B_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R3-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2378259691290357</v>
+        <v>0.236667474388515</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3201438256726717</v>
+        <v>0.3219742943128647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2917942130189262</v>
+        <v>0.2916856046531485</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3214257841883001</v>
+        <v>0.3206146449407666</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.387625009035274</v>
+        <v>0.3889394109898535</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3451540786915187</v>
+        <v>0.3461571586908725</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1393919756483678</v>
+        <v>0.1372938711538805</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2262334695886041</v>
+        <v>0.2271444692724449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1916319345324091</v>
+        <v>0.1923051366627441</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1839906695325914</v>
+        <v>0.1848666321469324</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2681362649837079</v>
+        <v>0.2685276874818046</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2251175229670833</v>
+        <v>0.2237769492383011</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.1323377719478432</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1735003645913374</v>
+        <v>0.1735003645913375</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1529402101591245</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1117777257459075</v>
+        <v>0.111770253681392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1532555400205123</v>
+        <v>0.155470599262641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1392573708807578</v>
+        <v>0.1373461470421261</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1580077012462387</v>
+        <v>0.1544694161902436</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.19433400346647</v>
+        <v>0.1935974297409422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.170581904487455</v>
+        <v>0.1682251032598272</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1507165093422523</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1320768510025881</v>
+        <v>0.132076851002588</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0946783344867493</v>
+        <v>0.0956747608227302</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1308864279760616</v>
+        <v>0.1316270979364464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1176553876322348</v>
+        <v>0.1172261692480819</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1375006146488317</v>
+        <v>0.1413402941966362</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1713094451654044</v>
+        <v>0.1701601548967274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1468837129823087</v>
+        <v>0.1484495616561534</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1558479432753019</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2206782306805302</v>
+        <v>0.2206782306805303</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1892344421775301</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1439437799435648</v>
+        <v>0.1435164173005686</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2096407141223484</v>
+        <v>0.2098738119766767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1811236426128648</v>
+        <v>0.1813730294690171</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1691907921308202</v>
+        <v>0.1699256501213635</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2315898270509746</v>
+        <v>0.2324949901510178</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1978906114040166</v>
+        <v>0.1982012300277575</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>118613</v>
+        <v>118035</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>199635</v>
+        <v>200777</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>327486</v>
+        <v>327365</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>160308</v>
+        <v>159903</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>241715</v>
+        <v>242535</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>387373</v>
+        <v>388499</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>133835</v>
+        <v>131821</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>252442</v>
+        <v>253459</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>397825</v>
+        <v>399223</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>176656</v>
+        <v>177497</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>299200</v>
+        <v>299636</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>467341</v>
+        <v>464558</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>116863</v>
+        <v>116855</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>160557</v>
+        <v>162878</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>291484</v>
+        <v>287484</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>165196</v>
+        <v>161496</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>203592</v>
+        <v>202821</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>357051</v>
+        <v>352118</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>92399</v>
+        <v>93372</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>118878</v>
+        <v>119550</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>221684</v>
+        <v>220875</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>134191</v>
+        <v>137938</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>155592</v>
+        <v>154548</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>276755</v>
+        <v>279706</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>500967</v>
+        <v>499480</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>774690</v>
+        <v>775551</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1299674</v>
+        <v>1301464</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>588834</v>
+        <v>591392</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>855799</v>
+        <v>859144</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1419988</v>
+        <v>1422217</v>
       </c>
     </row>
     <row r="24">
